--- a/2025-10-12/12_ai.full_fixtures.xlsx
+++ b/2025-10-12/12_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croatia - Gibraltar: 19:45</t>
+          <t>Croatia ✓ - Gibraltar: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -507,12 +507,16 @@
           <t>77%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -523,28 +527,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louisville City FC - Miami FC: 1:0</t>
+          <t>Bukovyna Chernivtsi ✓ - Podillya Khmelnytskyi: 2:0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Louisville City FC</t>
+          <t>Bukovyna Chernivtsi</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -558,31 +566,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Netherlands - Finland: 17:00</t>
+          <t>Louisville City FC ✓ - Miami FC: 1:0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.03</v>
+        <v>2.02</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Louisville City FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -593,31 +605,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scotland - Belarus: 17:00</t>
+          <t>Netherlands ✓ - Finland: 4:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.3</v>
+        <v>3.03</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>72%</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -628,15 +644,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Romania - Austria: 19:45</t>
+          <t>Scotland ✓ - Belarus: 2:1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.96</v>
+        <v>1.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -644,12 +660,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -663,31 +683,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zambia - Niger: 14:00</t>
+          <t>Romania - Austria X: 1:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.57</v>
+        <v>1.96</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -698,15 +722,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Egypt - Guinea-Bissau: 20:00</t>
+          <t>Zambia X - Niger: 0:1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.14</v>
+        <v>0.57</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -717,12 +741,16 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +761,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CD Plaza Amador - CD Árabe Unido: 0:2</t>
+          <t>Egypt ✓ - Guinea-Bissau: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.62</v>
+        <v>0.14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CD Plaza Amador</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -768,15 +800,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Atlético Tembetary - Club Libertad Asunción: 2:1</t>
+          <t>CD Plaza Amador X - CD Árabe Unido: 0:2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Club Libertad Asunción</t>
+          <t>CD Plaza Amador</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -787,12 +819,16 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -803,28 +839,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Burkina Faso - Ethiopia: 20:00</t>
+          <t>Atlético Tembetary - Club Libertad Asunción X: 2:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Club Libertad Asunción</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -838,28 +878,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ghana - Comoros: 20:00</t>
+          <t>Burkina Faso ✓ - Ethiopia: 3:1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -873,31 +917,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mali - Madagascar: 20:00</t>
+          <t>Ghana ✓ - Comoros: 1:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -908,28 +956,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima - Yokohama FC: 2:1</t>
+          <t>Mali ✓ - Madagascar: 4:1</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.5</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -943,28 +995,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PSS Sleman - Kendal Tornado FC: 3:1</t>
+          <t>Sanfrecce Hiroshima ✓ - Yokohama FC: 2:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>61%</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -978,15 +1034,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Club Deportivo Guabirá - Club Aurora: 2:1</t>
+          <t>PSS Sleman ✓ - Kendal Tornado FC: 3:1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Club Deportivo Guabirá</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -997,12 +1053,16 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1013,31 +1073,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam - Fard Alborz: 16:30</t>
+          <t>Club Deportivo Guabirá ✓ - Club Aurora: 2:1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.74</v>
+        <v>2.63</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam</t>
+          <t>Club Deportivo Guabirá</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1048,15 +1112,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Antigua GFC - Deportivo Achuapa: 02:00</t>
+          <t>Pars Jonoubi Jam  - Fard Alborz: 0:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Antigua GFC</t>
+          <t>Pars Jonoubi Jam</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1064,12 +1128,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1083,19 +1147,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CA Estudiantes - Club Deportivo Maipú: 21:10</t>
+          <t>Antigua GFC  - Deportivo Achuapa: 02:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Antigua GFC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1104,10 +1168,10 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1118,26 +1182,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons - Ansan Greeners: 0:1</t>
+          <t>CA Estudiantes ✓ - Club Deportivo Maipú: 1:0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.61</v>
+        <v>0.88</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jeonnam Dragons</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>55%</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
@@ -1153,15 +1221,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CSD Municipal - Cobán Imperial: 00:00</t>
+          <t>Jeonnam Dragons X - Ansan Greeners: 0:1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CSD Municipal</t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1172,9 +1240,13 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1188,31 +1260,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nations Football Club - Hohoe United Football Club: 16:00</t>
+          <t>CSD Municipal  - Cobán Imperial: 00:00</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nations Football Club</t>
+          <t>CSD Municipal</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1223,19 +1295,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Western Springs AFC - Auckland FC Reserves: 1:1</t>
+          <t>Nations Football Club  - Hohoe United Football Club: 16:00</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Western Springs AFC</t>
+          <t>Nations Football Club</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1244,10 +1316,10 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1258,31 +1330,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Caguas Sporting FC - FC Mayagüez: 11:0</t>
+          <t>Western Springs AFC  - Auckland FC Reserves: 1:1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.27</v>
+        <v>2.33</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Caguas Sporting FC</t>
+          <t>Western Springs AFC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1293,28 +1365,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Kfar Saba: 17:00</t>
+          <t>Caguas Sporting FC ✓ - FC Mayagüez: 11:0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.06</v>
+        <v>3.27</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya</t>
+          <t>Caguas Sporting FC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>53%</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1328,28 +1404,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suwon Samsung Bluewings - Cheonan City: 5:0</t>
+          <t>Maccabi Herzliya  - Hapoel Kfar Saba: 2:2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.37</v>
+        <v>1.06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Suwon Samsung Bluewings</t>
+          <t>Maccabi Herzliya</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1363,15 +1439,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SC Kiryat Yam - Hapoel Ramat Gan: 17:00</t>
+          <t>Suwon Samsung Bluewings ✓ - Cheonan City: 5:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SC Kiryat Yam</t>
+          <t>Suwon Samsung Bluewings</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1382,9 +1458,13 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -1398,31 +1478,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Charleston Battery - Colorado Springs Switchbacks FC: 00:30</t>
+          <t>SC Kiryat Yam X - Hapoel Ramat Gan: 0:2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.97</v>
+        <v>2.45</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>SC Kiryat Yam</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>51%</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1433,19 +1517,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Universidad de Concepción - Curicó Unido: 21:30</t>
+          <t>Charleston Battery  - Colorado Springs Switchbacks FC: 00:30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.99</v>
+        <v>1.97</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Universidad de Concepción</t>
+          <t>Charleston Battery</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1454,7 +1538,7 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1468,15 +1552,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nasarawa United - Rangers International FC: 16:00</t>
+          <t>Universidad de Concepción ✓ - Curicó Unido: 2:0</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nasarawa United</t>
+          <t>Universidad de Concepción</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1484,12 +1568,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1503,28 +1591,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Supreme FC - Tung Sing: 06:30</t>
+          <t>Nasarawa United ✓ - Rangers International FC: 2:1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.96</v>
+        <v>0.92</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Supreme FC</t>
+          <t>Nasarawa United</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>50%</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1538,28 +1630,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Karela United FC - Dreams FC: 16:00</t>
+          <t>Supreme FC ✓ - Tung Sing: 3:2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.62</v>
+        <v>1.96</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Karela United FC</t>
+          <t>Supreme FC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>50%</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1573,28 +1669,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CD Luis Angel Firpo - CD Cacahuatique: 3:0</t>
+          <t>Karela United FC  - Dreams FC: 16:00</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.49</v>
+        <v>0.62</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CD Luis Angel Firpo</t>
+          <t>Karela United FC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1608,15 +1704,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Panionios Athens - GS Ilioupolis: 12:00</t>
+          <t>CD Luis Angel Firpo ✓ - CD Cacahuatique: 3:0</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Panionios Athens</t>
+          <t>CD Luis Angel Firpo</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1627,9 +1723,13 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1643,15 +1743,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán - Alianza FC: 1:0</t>
+          <t>Panionios Athens ✓ - GS Ilioupolis: 2:0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.07</v>
+        <v>1.63</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Alianza FC</t>
+          <t>Panionios Athens</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1662,9 +1762,13 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -1678,31 +1782,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hoi King - Bright Cerulean: 06:30</t>
+          <t>AD Isidro Metapán - Alianza FC X: 1:0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.11</v>
+        <v>1.07</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hoi King</t>
+          <t>Alianza FC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1713,19 +1821,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Karela United FC - Berekum Chelsea FC: 16:00</t>
+          <t>Hoi King  - Bright Cerulean: 2:2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.95</v>
+        <v>4.11</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Karela United FC</t>
+          <t>Hoi King</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1734,10 +1842,10 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1748,28 +1856,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Inter Miami CF - Atlanta United FC: 4:0</t>
+          <t>Karela United FC  - Berekum Chelsea FC: 16:00</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.93</v>
+        <v>0.95</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Karela United FC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1783,28 +1891,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Faroe Islands - Czech Republic: 17:00</t>
+          <t>Inter Miami CF ✓ - Atlanta United FC: 4:0</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.33</v>
+        <v>2.93</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>46%</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H39" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1818,28 +1930,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PAS Giannina - Anagennisi Karditsas: 14:00</t>
+          <t>Faroe Islands - Czech Republic X: 2:1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.86</v>
+        <v>0.33</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Anagennisi Karditsas</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1853,15 +1969,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Seattle Sounders FC - Real Salt Lake City: 1:0</t>
+          <t>PAS Giannina - Anagennisi Karditsas : 0:0</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.33</v>
+        <v>2.86</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Seattle Sounders FC</t>
+          <t>Anagennisi Karditsas</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1874,7 +1990,7 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -1888,7 +2004,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tlaxcala FC - Tampico Madero: 1:1</t>
+          <t>Tlaxcala FC - Tampico Madero : 1:1</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1923,7 +2039,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CD América de Cali - CD La Equidad Seguros SA: 3:2</t>
+          <t>CD América de Cali ✓ - CD La Equidad Seguros SA: 3:2</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1942,7 +2058,11 @@
           <t>43%</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H43" t="n">
         <v>5</v>
       </c>
@@ -1958,15 +2078,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Club Atlético Morelia - CD Tapatío: 0:0</t>
+          <t>FC OshMU ✓ - Neftchi Kochkor-Ata: 1:0</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Club Atlético Morelia</t>
+          <t>FC OshMU</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1977,9 +2097,13 @@
           <t>43%</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -1993,15 +2117,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CA River Plate - CA Sarmiento (Junin): 23:15</t>
+          <t>Club Atlético Morelia  - CD Tapatío: 0:0</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CA River Plate</t>
+          <t>Club Atlético Morelia</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2014,10 +2138,10 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2028,31 +2152,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LD Alajuelense - CS Cartaginés: 03:00</t>
+          <t>CA River Plate X - CA Sarmiento (Junin): 0:1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8</v>
+        <v>1.32</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LD Alajuelense</t>
+          <t>CA River Plate</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2063,28 +2191,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Malta - Bosnia-Herzegovina: 18:00</t>
+          <t>LD Alajuelense  - CS Cartaginés: 03:00</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bosnia-Herzegovina</t>
+          <t>LD Alajuelense</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2098,15 +2226,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CD FAS - CD Municipal Limeño: 1:1</t>
+          <t>Malta - Bosnia-Herzegovina ✓: 1:4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CD FAS</t>
+          <t>Bosnia-Herzegovina</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2117,12 +2245,16 @@
           <t>41%</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2133,15 +2265,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Denmark - Greece: 19:45</t>
+          <t>CD FAS  - CD Municipal Limeño: 1:1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>CD FAS</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2149,15 +2281,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2168,28 +2300,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Atlético Ottawa - Vancouver FC: 20:00</t>
+          <t>Denmark - Greece X: 3:1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.92</v>
+        <v>1.61</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Atlético Ottawa</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>40%</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2203,19 +2339,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Larne FC - Linfield FC: 15:00</t>
+          <t>Atlético Ottawa  - Vancouver FC: 0:0</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.27</v>
+        <v>2.92</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Larne FC</t>
+          <t>Atlético Ottawa</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2224,10 +2360,10 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2238,28 +2374,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AA Estudiantes (Río Cuarto) - CA Patronato: 23:10</t>
+          <t>Larne FC  - Linfield FC: 15:00</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.54</v>
+        <v>1.27</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>AA Estudiantes (Río Cuarto)</t>
+          <t>Larne FC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2273,15 +2409,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Heart of Lions FC - Berekum Chelsea FC: 16:00</t>
+          <t>22 de Julio FC  - CSD Vargas Torres: 0:0</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Heart of Lions FC</t>
+          <t>22 de Julio FC</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2294,10 +2430,10 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2308,28 +2444,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe - Llaneros FC: 20:00</t>
+          <t>AA Estudiantes (Río Cuarto) ✓ - CA Patronato: 2:1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.31</v>
+        <v>0.54</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe</t>
+          <t>AA Estudiantes (Río Cuarto)</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>38%</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H54" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2343,15 +2483,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FC Résidence Walferdange - FC Mondercange: 15:00</t>
+          <t>Heart of Lions FC  - Berekum Chelsea FC: 16:00</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.91</v>
+        <v>1.3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FC Résidence Walferdange</t>
+          <t>Heart of Lions FC</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2359,12 +2499,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -2378,28 +2518,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FK Smiltene/BJSS - Riga Mariners: 12:00</t>
+          <t>Independiente Santa Fe X - Llaneros FC: 1:3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.79</v>
+        <v>1.31</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Riga Mariners</t>
+          <t>Independiente Santa Fe</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -2413,28 +2557,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Danubio FC - Club Nacional: 20:00</t>
+          <t>FC Résidence Walferdange X - FC Mondercange: 1:2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Club Nacional</t>
+          <t>FC Résidence Walferdange</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>34%</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H57" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2448,28 +2596,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Bnei Yehuda Tel Aviv - Maccabi Jaffa: 17:00</t>
+          <t>FK Smiltene/BJSS - Riga Mariners : 12:00</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.96</v>
+        <v>3.79</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bnei Yehuda Tel Aviv</t>
+          <t>Riga Mariners</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2483,19 +2631,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FC Petrzalka - Inter Bratislava: 09:30</t>
+          <t>Danubio FC - Club Nacional : 0:0</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.1</v>
+        <v>2.17</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FC Petrzalka</t>
+          <t>Club Nacional</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2504,10 +2652,10 @@
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2518,31 +2666,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FC Wiltz 71 - US Feulen: 15:00</t>
+          <t>Bnei Yehuda Tel Aviv X - Maccabi Jaffa: 0:1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FC Wiltz 71</t>
+          <t>Bnei Yehuda Tel Aviv</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>34%</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H60" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2553,15 +2705,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds SC - Indy Eleven: 2:1</t>
+          <t>FC Petrzalka X - Inter Bratislava: 0:1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.84</v>
+        <v>1.1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pittsburgh Riverhounds SC</t>
+          <t>FC Petrzalka</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2569,15 +2721,19 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2588,15 +2744,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FCI Levadia - FC Flora Tallinn U21: 13:00</t>
+          <t>FC Wiltz 71 ✓ - US Feulen: 1:0</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.94</v>
+        <v>2.22</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FCI Levadia</t>
+          <t>FC Wiltz 71</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2604,15 +2760,19 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2623,28 +2783,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hearts of Oak - Asante Kotoko SC: 16:00</t>
+          <t>Pittsburgh Riverhounds SC ✓ - Indy Eleven: 2:1</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.67</v>
+        <v>1.84</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hearts of Oak</t>
+          <t>Pittsburgh Riverhounds SC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H63" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2658,15 +2822,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FC Rànger's - Club Esportiu Carroi: 3:0</t>
+          <t>FCI Levadia ✓ - FC Flora Tallinn U21: 4:0</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.18</v>
+        <v>2.94</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FC Rànger's</t>
+          <t>FCI Levadia</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2674,15 +2838,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>31%</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2693,15 +2861,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Montevideo City Torque - Montevideo Wanderers: 14:30</t>
+          <t>Atlético Vinotinto  - Imbabura SC: 1:1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Montevideo City Torque</t>
+          <t>Atlético Vinotinto</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2709,15 +2877,15 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2728,19 +2896,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FC Samartex - Swedru All Blacks United FC: 16:00</t>
+          <t>Hearts of Oak  - Asante Kotoko SC: 16:00</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.99</v>
+        <v>0.67</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FC Samartex</t>
+          <t>Hearts of Oak</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2763,31 +2931,35 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>South China - Shatin: 08:30</t>
+          <t>FC Rànger's ✓ - Club Esportiu Carroi: 3:0</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3.92</v>
+        <v>2.18</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>South China</t>
+          <t>FC Rànger's</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H67" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2798,15 +2970,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Universidad César Vallejo - FC Cajamarca: 19:15</t>
+          <t>Montevideo City Torque  - Montevideo Wanderers: 2:2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Universidad César Vallejo</t>
+          <t>Montevideo City Torque</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2814,12 +2986,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -2833,23 +3005,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Vision FC - Eleven Wonders FC: 16:00</t>
+          <t>FC Samartex  - Swedru All Blacks United FC: 16:00</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Vision FC</t>
+          <t>FC Samartex</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2868,31 +3040,35 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cusco FC - Comerciantes Unidos: 00:00</t>
+          <t>South China ✓ - Shatin: 5:0</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.72</v>
+        <v>3.92</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cusco FC</t>
+          <t>South China</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>29%</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2903,28 +3079,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dunbeholden FC - Arnett Gardens FC: 21:00</t>
+          <t>Universidad César Vallejo  - FC Cajamarca: 19:15</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2.04</v>
+        <v>1.36</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Arnett Gardens FC</t>
+          <t>Universidad César Vallejo</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -2938,28 +3114,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CD Cobreloa - Deportes Temuco: 19:00</t>
+          <t>Vision FC  - Eleven Wonders FC: 16:00</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CD Cobreloa</t>
+          <t>Vision FC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -2973,15 +3149,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Heidelberg United FC - Marconi Stallions FC: 1:0</t>
+          <t>Cusco FC  - Comerciantes Unidos: 00:00</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.1</v>
+        <v>1.72</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Heidelberg United FC</t>
+          <t>Cusco FC</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2989,12 +3165,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3008,28 +3184,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sportivo Ameliano - Club Guaraní: 21:30</t>
+          <t>Dunbeholden FC - Arnett Gardens FC : 21:00</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Club Guaraní</t>
+          <t>Arnett Gardens FC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -3043,31 +3219,35 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lithuania - Poland: 19:45</t>
+          <t>CD Cobreloa ✓ - Deportes Temuco: 2:1</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>CD Cobreloa</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H75" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3078,15 +3258,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NK Dugopolje - NK Sesvete: 14:00</t>
+          <t>Heidelberg United FC ✓ - Marconi Stallions FC: 1:0</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NK Sesvete</t>
+          <t>Heidelberg United FC</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3094,15 +3274,19 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H76" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3113,15 +3297,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cádiz CF - SD Huesca: 17:30</t>
+          <t>Sportivo Ameliano - Club Guaraní ✓: 0:1</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cádiz CF</t>
+          <t>Club Guaraní</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3129,15 +3313,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H77" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3148,31 +3336,35 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FC Samartex - Eleven Wonders FC: 16:00</t>
+          <t>Lithuania - Poland ✓: 0:2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FC Samartex</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>24%</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H78" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3183,31 +3375,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wofoo Social Enterprises - Central &amp; Western District: 08:30</t>
+          <t>NK Dugopolje - NK Sesvete : 1:1</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3.23</v>
+        <v>1.31</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wofoo Social Enterprises</t>
+          <t>NK Sesvete</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3218,31 +3410,35 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Djibouti - Sierra Leone: 20:00</t>
+          <t>Cádiz CF ✓ - SD Huesca: 1:0</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.32</v>
+        <v>1.12</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Cádiz CF</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H80" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3253,28 +3449,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Saipa FC - Naft va Gaz Gachsaran: 16:00</t>
+          <t>FC Samartex ✓ - Eleven Wonders FC: 2:1</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Saipa FC</t>
+          <t>FC Samartex</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H81" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -3288,31 +3488,35 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FK Otrant-Olympic Ulcinj - Rudar Pljevlja: 14:00</t>
+          <t>Wofoo Social Enterprises ✓ - Central &amp; Western District: 3:1</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.95</v>
+        <v>3.23</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FK Otrant-Olympic Ulcinj</t>
+          <t>Wofoo Social Enterprises</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H82" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3323,28 +3527,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Coastal Spirit FC - Wellington Olympic AFC: 1:3</t>
+          <t>Djibouti - Sierra Leone ✓: 1:2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5.63</v>
+        <v>2.32</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wellington Olympic AFC</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -3358,28 +3566,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mexico - Colombia: 0:4</t>
+          <t>Saipa FC  - Naft va Gaz Gachsaran: 16:00</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.39</v>
+        <v>0.88</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Saipa FC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -3393,28 +3601,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Resources Capital - Yuen Long: 08:30</t>
+          <t>FK Otrant-Olympic Ulcinj ✓ - Rudar Pljevlja: 6:2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3.52</v>
+        <v>1.95</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Resources Capital</t>
+          <t>FK Otrant-Olympic Ulcinj</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H85" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -3428,31 +3640,35 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hapoel Rishon leZion - Hapoel Kfar Shalem: 17:00</t>
+          <t>Coastal Spirit FC - Wellington Olympic AFC ✓: 1:3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.65</v>
+        <v>5.63</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hapoel Rishon leZion</t>
+          <t>Wellington Olympic AFC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>22%</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H86" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3463,28 +3679,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>New Mexico United - Orange County SC: 3:3</t>
+          <t>Mexico X - Colombia: 0:4</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.3</v>
+        <v>1.39</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>New Mexico United</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -3498,28 +3718,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy - FC Dallas: 2:1</t>
+          <t>Resources Capital  - Yuen Long: 0:0</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.86</v>
+        <v>3.52</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Resources Capital</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -3533,31 +3753,35 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Deportivo Mixco - CD Malacateco: 21:00</t>
+          <t>Seattle Sounders FC ✓ - Real Salt Lake City: 1:0</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.31</v>
+        <v>2.33</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Deportivo Mixco</t>
+          <t>Seattle Sounders FC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>21%</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H89" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3568,19 +3792,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FC Etzella Ettelbruck - FC Koeppchen: 15:00</t>
+          <t>New Mexico United  - Orange County SC: 3:3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FC Etzella Ettelbruck</t>
+          <t>New Mexico United</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3589,7 +3813,7 @@
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -3603,19 +3827,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero - San Antonio Bulo Bulo: 22:15</t>
+          <t>Deportivo Mixco  - CD Malacateco: 21:00</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.56</v>
+        <v>1.31</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Club Independiente Petrolero</t>
+          <t>Deportivo Mixco</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3624,7 +3848,7 @@
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -3638,31 +3862,35 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cavalier FC - Portmore United FC: 23:30</t>
+          <t>FC Etzella Ettelbruck ✓ - FC Koeppchen: 2:0</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.65</v>
+        <v>1.81</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cavalier FC</t>
+          <t>FC Etzella Ettelbruck</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H92" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3673,28 +3901,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Grêmio Novorizontino - Operário Ferroviário Esporte Clube (PR): 20:00</t>
+          <t>Club Independiente Petrolero X - San Antonio Bulo Bulo: 1:3</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.17</v>
+        <v>2.56</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Grêmio Novorizontino</t>
+          <t>Club Independiente Petrolero</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H93" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -3708,31 +3940,35 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Orlando City SC - Vancouver Whitecaps FC: 1:2</t>
+          <t>Cavalier FC X - Portmore United FC: 2:4</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.45</v>
+        <v>0.65</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Orlando City SC</t>
+          <t>Cavalier FC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3743,28 +3979,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NK Croatia Zmijavci - NK Jarun: 14:30</t>
+          <t>Grêmio Novorizontino ✓ - Operário Ferroviário Esporte Clube (PR): 3:0</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.91</v>
+        <v>1.17</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NK Croatia Zmijavci</t>
+          <t>Grêmio Novorizontino</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H95" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -3778,19 +4018,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CSD Tristan Suarez - CA Agropecuario: 23:00</t>
+          <t>NK Croatia Zmijavci  - NK Jarun: 2:2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.3</v>
+        <v>0.91</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CSD Tristan Suarez</t>
+          <t>NK Croatia Zmijavci</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3799,7 +4039,7 @@
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -3813,19 +4053,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FC Tulsa - San Antonio FC: 2:0</t>
+          <t>Cumbayá FC  - Chacaritas FC: 0:0</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FC Tulsa</t>
+          <t>Cumbayá FC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3834,7 +4074,7 @@
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -3848,15 +4088,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube - América Futebol Clube (MG): 22:30</t>
+          <t>Talant Besh-Küngöy ✓ - FK Ilbirs Bishkek: 1:0</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Criciúma Esporte Clube</t>
+          <t>Talant Besh-Küngöy</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3864,15 +4104,19 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H98" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3883,31 +4127,35 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Grenada - Cuba: 2:0</t>
+          <t>CSD Tristan Suarez ✓ - CA Agropecuario: 2:1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2.23</v>
+        <v>1.3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>CSD Tristan Suarez</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3918,15 +4166,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Málaga CF - Deportivo de La Coruña: 20:00</t>
+          <t>Dingnan United - Nantong Zhiyun : 1:1</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Deportivo de La Coruña</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3934,15 +4182,15 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3953,31 +4201,35 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CA Vélez Sarsfield - CA Rosario Central: 1:2</t>
+          <t>FC Tulsa ✓ - San Antonio FC: 2:0</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.58</v>
+        <v>1.64</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CA Vélez Sarsfield</t>
+          <t>FC Tulsa</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3988,15 +4240,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hearts of Oak - Heart of Lions FC: 16:00</t>
+          <t>Criciúma Esporte Clube ✓ - América Futebol Clube (MG): 2:1</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hearts of Oak</t>
+          <t>Criciúma Esporte Clube</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4007,9 +4259,13 @@
           <t>19%</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H102" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -4023,31 +4279,35 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Rivers United FC - Bayelsa United: 16:00</t>
+          <t>Grenada ✓ - Cuba: 2:0</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.41</v>
+        <v>2.23</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rivers United FC</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>19%</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H103" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4058,15 +4318,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Athens Kallithea - Olympiacos Piraeus B: 12:00</t>
+          <t>Málaga CF - Deportivo de La Coruña X: 3:0</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Deportivo de La Coruña</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4074,12 +4334,16 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H104" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -4093,31 +4357,35 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sumsel United FC - Persekat Tegal: 2:0</t>
+          <t>CA Vélez Sarsfield X - CA Rosario Central: 1:2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.01</v>
+        <v>0.58</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sumsel United FC</t>
+          <t>CA Vélez Sarsfield</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4128,15 +4396,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FK Iskra Danilovgrad - FK Lovcen Cetinje: 14:30</t>
+          <t>Hearts of Oak  - Heart of Lions FC: 16:00</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>FK Iskra Danilovgrad</t>
+          <t>Hearts of Oak</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4144,12 +4412,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4163,23 +4431,23 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Medeama SC - Dreams FC: 16:00</t>
+          <t>Rivers United FC  - Bayelsa United: 16:00</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.94</v>
+        <v>0.41</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Medeama SC</t>
+          <t>Rivers United FC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -4198,15 +4466,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SD Eibar - CD Castellón: 15:15</t>
+          <t>Athens Kallithea X - Olympiacos Piraeus B: 2:3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4217,9 +4485,13 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H108" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4233,15 +4505,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Aduana Stars FC - Bechem United FC: 16:00</t>
+          <t>Sumsel United FC ✓ - Persekat Tegal: 2:0</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Aduana Stars FC</t>
+          <t>Sumsel United FC</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4252,12 +4524,16 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H109" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4268,15 +4544,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Alianza Atlético Sullana - CD Los Chankas: 21:30</t>
+          <t>FK Iskra Danilovgrad X - FK Lovcen Cetinje: 0:1</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Alianza Atlético Sullana</t>
+          <t>FK Iskra Danilovgrad</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4287,12 +4563,16 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H110" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4303,19 +4583,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NK Dekani - ND Beltinci: 14:30</t>
+          <t>Medeama SC  - Dreams FC: 16:00</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.69</v>
+        <v>1.94</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ND Beltinci</t>
+          <t>Medeama SC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4324,7 +4604,7 @@
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -4338,19 +4618,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Deportivo Moquegua - CD Unión Comercio: 17:00</t>
+          <t>SD Eibar  - CD Castellón: 0:0</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2.49</v>
+        <v>1.31</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CD Unión Comercio</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4359,10 +4639,10 @@
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4373,28 +4653,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Plateau United FC - Barau Football Club: 16:00</t>
+          <t>Aduana Stars FC ✓ - Bechem United FC: 2:1</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.85</v>
+        <v>1.32</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Plateau United FC</t>
+          <t>Aduana Stars FC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>18%</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H113" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4408,15 +4692,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Persiba Balikpapan - Persela Lamongan: 13:00</t>
+          <t>Alianza Atlético Sullana ✓ - CD Los Chankas: 1:0</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Persiba Balikpapan</t>
+          <t>Alianza Atlético Sullana</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4424,15 +4708,19 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H114" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4443,15 +4731,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FSV Budissa Bautzen - Bischofswerdaer FV 08: 15:00</t>
+          <t>NK Dekani - ND Beltinci ✓: 0:1</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>FSV Budissa Bautzen</t>
+          <t>ND Beltinci</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4459,15 +4747,19 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H115" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4478,28 +4770,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Chungnam Asan - Gyeongnam FC: 1:0</t>
+          <t>Deportivo Moquegua - CD Unión Comercio X: 2:1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1.87</v>
+        <v>2.49</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Chungnam Asan</t>
+          <t>CD Unión Comercio</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -4513,28 +4809,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Aduana Stars FC - Medeama SC: 16:00</t>
+          <t>Plateau United FC ✓ - Barau Football Club: 2:0</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.98</v>
+        <v>0.85</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Aduana Stars FC</t>
+          <t>Plateau United FC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H117" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
@@ -4548,31 +4848,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Club de Gimnasia y Tiro - CA Temperley: 2:0</t>
+          <t>Albacete Balompié  - AD Ceuta FC: 0:0</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.52</v>
+        <v>1.68</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Club de Gimnasia y Tiro</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4583,31 +4883,35 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CA Cerro - Defensor Sporting Club: 1:0</t>
+          <t>Persiba Balikpapan X - Persela Lamongan: 0:3</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.91</v>
+        <v>1.69</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Defensor Sporting Club</t>
+          <t>Persiba Balikpapan</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4618,15 +4922,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Niva Dolbizno - FC Minsk 2: 14:00</t>
+          <t>Chungnam Asan ✓ - Gyeongnam FC: 1:0</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.42</v>
+        <v>1.87</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Niva Dolbizno</t>
+          <t>Chungnam Asan</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4637,12 +4941,16 @@
           <t>17%</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H120" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4653,19 +4961,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Citizen - Sham Shui Po: 06:30</t>
+          <t>Aduana Stars FC  - Medeama SC: 16:00</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4.72</v>
+        <v>1.98</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Citizen</t>
+          <t>Aduana Stars FC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4674,7 +4982,7 @@
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
@@ -4688,15 +4996,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FK Loznica - FK Kabel Novi Sad: 13:00</t>
+          <t>Club de Gimnasia y Tiro ✓ - CA Temperley: 2:0</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>FK Loznica</t>
+          <t>Club de Gimnasia y Tiro</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4707,9 +5015,13 @@
           <t>17%</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H122" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -4723,31 +5035,35 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Seongnam FC - Incheon United: 2:2</t>
+          <t>CA Cerro - Defensor Sporting Club X: 1:0</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.29</v>
+        <v>0.91</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Incheon United</t>
+          <t>Defensor Sporting Club</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4758,15 +5074,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FK Vozdovac - OFK Vrsac: 16:00</t>
+          <t>Niva Dolbizno  - FC Minsk 2: 2:2</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FK Vozdovac</t>
+          <t>Niva Dolbizno</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4779,7 +5095,7 @@
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I124" t="b">
         <v>0</v>
@@ -4793,31 +5109,35 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Albion FC - CA Rentistas: 20:00</t>
+          <t>Citizen X - Sham Shui Po: 2:3</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.58</v>
+        <v>4.72</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Citizen</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H125" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4828,15 +5148,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rotor Volgograd - Chernomorets Novorossijsk: 14:00</t>
+          <t>FK Loznica  - FK Kabel Novi Sad: 1:1</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.83</v>
+        <v>0.4</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rotor Volgograd</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4849,7 +5169,7 @@
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
@@ -4863,19 +5183,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Probiy Gorodenka - Ingulets Petrove: 13:00</t>
+          <t>Seongnam FC - Incheon United : 2:2</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2.19</v>
+        <v>1.29</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Ingulets Petrove</t>
+          <t>Incheon United</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4884,7 +5204,7 @@
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
@@ -4898,15 +5218,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Molynes United FC - Montego Bay United FC: 21:00</t>
+          <t>FK Vozdovac  - OFK Vrsac: 0:0</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.95</v>
+        <v>1.21</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Montego Bay United FC</t>
+          <t>FK Vozdovac</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4914,15 +5234,15 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4933,15 +5253,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>OFK Grbalj - FK Berane: 14:00</t>
+          <t>Albion FC ✓ - CA Rentistas: 4:1</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OFK Grbalj</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4949,12 +5269,16 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H129" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -4968,28 +5292,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Busan IPark - Bucheon FC 1995: 1:2</t>
+          <t>Rotor Volgograd ✓ - Chernomorets Novorossijsk: 2:0</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1.64</v>
+        <v>0.83</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Busan IPark</t>
+          <t>Rotor Volgograd</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
@@ -5003,15 +5331,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SC Bettembourg - US Rumelange: 15:00</t>
+          <t>Probiy Gorodenka - Ingulets Petrove ✓: 0:1</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SC Bettembourg</t>
+          <t>Ingulets Petrove</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -5019,15 +5347,19 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H131" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5038,15 +5370,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Santiago Wanderers - Deportes Concepción: 2:2</t>
+          <t>Molynes United FC - Montego Bay United FC ✓: 0:2</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Montego Bay United FC</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -5057,12 +5389,16 @@
           <t>16%</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5073,15 +5409,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Racing United FC - Spanish Town Police FC: 21:00</t>
+          <t>OFK Grbalj ✓ - FK Berane: 2:1</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.98</v>
+        <v>0.42</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Racing United FC</t>
+          <t>OFK Grbalj</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -5092,9 +5428,13 @@
           <t>16%</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H133" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
@@ -5108,28 +5448,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Persiraja Banda Aceh - FC Bekasi City: 14:30</t>
+          <t>Busan IPark X - Bucheon FC 1995: 1:2</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Persiraja Banda Aceh</t>
+          <t>Busan IPark</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H134" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
@@ -5143,15 +5487,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol - Kawasaki Frontale: 4:1</t>
+          <t>SC Bettembourg ✓ - US Rumelange: 2:1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>SC Bettembourg</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5159,15 +5503,19 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5178,15 +5526,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CA Artigas - CA Atenas de San Carlos: 15:00</t>
+          <t>Santiago Wanderers  - Deportes Concepción: 2:2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.49</v>
+        <v>1.99</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CA Atenas de San Carlos</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -5194,12 +5542,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
@@ -5213,28 +5561,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ikorodu City FC - Bendel Insurance: 17:30</t>
+          <t>Racing United FC ✓ - Spanish Town Police FC: 3:0</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.63</v>
+        <v>0.98</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ikorodu City FC</t>
+          <t>Racing United FC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H137" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I137" t="b">
         <v>0</v>
@@ -5248,23 +5600,23 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Club Atlético Belgrano - Club Estudiantes de La Plata: 1:1</t>
+          <t>Persiraja Banda Aceh  - FC Bekasi City: 1:1</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Club Atlético Belgrano</t>
+          <t>Persiraja Banda Aceh</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -5283,28 +5635,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Katsina United FC - Remo Stars FC: 16:00</t>
+          <t>Kashiwa Reysol ✓ - Kawasaki Frontale: 4:1</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.74</v>
+        <v>2.25</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Katsina United FC</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H139" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -5318,28 +5674,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Puerto Rico Surf - DS Edusoccer: 21:30</t>
+          <t>CA Artigas - CA Atenas de San Carlos ✓: 1:7</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2.39</v>
+        <v>1.49</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Puerto Rico Surf</t>
+          <t>CA Atenas de San Carlos</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H140" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
@@ -5353,15 +5713,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FK Smederevo 1924 - FK Zemun: 13:00</t>
+          <t>Ikorodu City FC ✓ - Bendel Insurance: 1:0</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>FK Zemun</t>
+          <t>Ikorodu City FC</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5369,15 +5729,19 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H141" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5388,15 +5752,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Basake Holy Stars FC - Bibiani Gold Stars FC: 16:00</t>
+          <t>Club Atlético Belgrano  - Club Estudiantes de La Plata: 1:1</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.34</v>
+        <v>1.91</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Bibiani Gold Stars FC</t>
+          <t>Club Atlético Belgrano</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5404,15 +5768,15 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5423,28 +5787,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Palayesh Naft Bandar Abbas - Mes Soongoun Varzaghan: 16:30</t>
+          <t>Katsina United FC ✓ - Remo Stars FC: 3:1</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.35</v>
+        <v>0.74</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Palayesh Naft Bandar Abbas</t>
+          <t>Katsina United FC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H143" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I143" t="b">
         <v>0</v>
@@ -5458,31 +5826,35 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Burgos CF - Real Valladolid CF: 17:30</t>
+          <t>Puerto Rico Surf ✓ - DS Edusoccer: 2:0</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.57</v>
+        <v>2.39</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Puerto Rico Surf</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>13%</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H144" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5493,31 +5865,35 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Aragua FC - Deportivo Miranda FC: 21:00</t>
+          <t>FK Smederevo 1924 - FK Zemun ✓: 0:1</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.68</v>
+        <v>1.54</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Aragua FC</t>
+          <t>FK Zemun</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>13%</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H145" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -5528,19 +5904,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Warri Wolves FC - Niger Tornadoes: 16:00</t>
+          <t>Basake Holy Stars FC - Bibiani Gold Stars FC : 16:00</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.39</v>
+        <v>1.34</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Warri Wolves FC</t>
+          <t>Bibiani Gold Stars FC</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5563,15 +5939,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CS Independiente Rivadavia - CD Godoy Cruz Antonio Tomba: 20:45</t>
+          <t>Palayesh Naft Bandar Abbas ✓ - Mes Soongoun Varzaghan: 1:0</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CS Independiente Rivadavia</t>
+          <t>Palayesh Naft Bandar Abbas</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5579,15 +5955,19 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H147" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5598,15 +5978,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ayacucho FC - Asociación Deportiva Tarma: 19:00</t>
+          <t>Burgos CF X - Real Valladolid CF: 0:1</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Asociación Deportiva Tarma</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5614,15 +5994,19 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H148" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5633,23 +6017,23 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mount Pleasant FA - Chapelton Maroons: 21:00</t>
+          <t>Aragua FC  - Deportivo Miranda FC: 21:00</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.93</v>
+        <v>0.68</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Mount Pleasant FA</t>
+          <t>Aragua FC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -5668,28 +6052,28 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nations Football Club - Asante Kotoko SC: 16:00</t>
+          <t>Warri Wolves FC  - Niger Tornadoes: 1:1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.31</v>
+        <v>0.39</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Nations Football Club</t>
+          <t>Warri Wolves FC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
@@ -5703,15 +6087,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tivoli Gardens FC - Harbour View FC: 21:00</t>
+          <t>CS Independiente Rivadavia  - CD Godoy Cruz Antonio Tomba: 0:0</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Tivoli Gardens FC</t>
+          <t>CS Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5724,10 +6108,10 @@
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5738,19 +6122,19 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Club Deportivo Oriente Petrolero - Gualberto Villarroel San José: 20:00</t>
+          <t>Ayacucho FC - Asociación Deportiva Tarma : 2:2</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2.42</v>
+        <v>1.43</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Club Deportivo Oriente Petrolero</t>
+          <t>Asociación Deportiva Tarma</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -5759,7 +6143,7 @@
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I152" t="b">
         <v>0</v>
@@ -5773,15 +6157,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bogotá FC - Real Cundinamarca: 20:00</t>
+          <t>Mount Pleasant FA ✓ - Chapelton Maroons: 3:1</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>Mount Pleasant FA</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -5792,9 +6176,13 @@
           <t>12%</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H153" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -5808,15 +6196,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Titanes FC - Barquisimeto SC: 20:30</t>
+          <t>Nations Football Club  - Asante Kotoko SC: 16:00</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Titanes FC</t>
+          <t>Nations Football Club</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5829,7 +6217,7 @@
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
@@ -5843,15 +6231,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Titanes FC - Barquisimeto Sport Club: 20:30</t>
+          <t>Tivoli Gardens FC ✓ - Harbour View FC: 2:1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Titanes FC</t>
+          <t>Tivoli Gardens FC</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -5862,9 +6250,13 @@
           <t>12%</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H155" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
@@ -5878,28 +6270,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hohoe United Football Club - Swedru All Blacks United FC: 16:00</t>
+          <t>Club Deportivo Oriente Petrolero ✓ - Gualberto Villarroel San José: 4:0</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Hohoe United Football Club</t>
+          <t>Club Deportivo Oriente Petrolero</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H156" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
@@ -5913,28 +6309,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CA Juventud - CA River Plate Montevideo: 17:00</t>
+          <t>Bogotá FC - Real Cundinamarca ✓: 0:3</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CA Juventud</t>
+          <t>Real Cundinamarca</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H157" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
@@ -5948,28 +6348,28 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BATE 2 Borisov - FK Lida: 12:00</t>
+          <t>Titanes FC  - Barquisimeto Sport Club: 20:30</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2.59</v>
+        <v>1.44</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>FK Lida</t>
+          <t>Titanes FC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
@@ -5983,28 +6383,28 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Abia Warriors FC - El-Kanemi Warriors: 16:00</t>
+          <t>Titanes FC  - Barquisimeto SC: 20:30</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.82</v>
+        <v>1.44</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Abia Warriors FC</t>
+          <t>Titanes FC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
@@ -6018,31 +6418,35 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FC The Belval Belvaux - FC Lorentzweiler: 15:00</t>
+          <t>Orlando City SC X - Vancouver Whitecaps FC: 1:2</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3.07</v>
+        <v>2.45</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>FC The Belval Belvaux</t>
+          <t>Orlando City SC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H160" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6053,31 +6457,35 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Instituto ACC - Club Atlético Tucumán: 20:45</t>
+          <t>Niroye Zamini FC ✓ - Shenavar Sazi Qeshm: 1:0</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.43</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Instituto ACC</t>
+          <t>Niroye Zamini FC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H161" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -6088,28 +6496,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Rhode Island FC - Tampa Bay Rowdies: 5:0</t>
+          <t>Hohoe United Football Club ✓ - Swedru All Blacks United FC: 2:0</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Rhode Island FC</t>
+          <t>Hohoe United Football Club</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H162" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I162" t="b">
         <v>0</v>
@@ -6123,31 +6535,35 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CD Platense Zacatecoluca - Inter FA: 22:00</t>
+          <t>Los Angeles Galaxy ✓ - FC Dallas: 2:1</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.91</v>
+        <v>2.86</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>CD Platense Zacatecoluca</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H163" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -6158,28 +6574,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Treasure Beach FC - Waterhouse FC: 21:00</t>
+          <t>CA Juventud X - CA River Plate Montevideo: 1:2</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Treasure Beach FC</t>
+          <t>CA Juventud</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>11%</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H164" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -6193,15 +6613,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hapoel Afula - Hapoel Acre: 17:00</t>
+          <t>Suzhou Dongwu  - Yanbian Longding: 1:1</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Hapoel Acre</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -6214,10 +6634,10 @@
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -6228,31 +6648,35 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AO Kavala - PAOK Thessaloniki B: 14:00</t>
+          <t>BATE 2 Borisov - FK Lida X: 2:1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.07</v>
+        <v>2.59</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki B</t>
+          <t>FK Lida</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H166" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -6263,28 +6687,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Vision FC - Bibiani Gold Stars FC: 16:00</t>
+          <t>Abia Warriors FC ✓ - El-Kanemi Warriors: 2:0</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Vision FC</t>
+          <t>Abia Warriors FC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H167" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
@@ -6298,15 +6726,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lucky Mile - Kwun Tong: 11:30</t>
+          <t>FC The Belval Belvaux ✓ - FC Lorentzweiler: 3:0</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3.93</v>
+        <v>3.07</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Lucky Mile</t>
+          <t>FC The Belval Belvaux</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -6317,12 +6745,16 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H168" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6333,15 +6765,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Vila Nova Futebol Clube (GO) - Amazonas FC: 22:30</t>
+          <t>Instituto ACC ✓ - Club Atlético Tucumán: 2:0</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Vila Nova Futebol Clube (GO)</t>
+          <t>Instituto ACC</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6352,12 +6784,16 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H169" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -6368,28 +6804,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Wikki Tourists - Kwara United FC: 16:00</t>
+          <t>Rhode Island FC ✓ - Tampa Bay Rowdies: 5:0</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.62</v>
+        <v>2.14</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Wikki Tourists</t>
+          <t>Rhode Island FC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H170" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
@@ -6403,28 +6843,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Kowloon City - Eastern District: 2:1</t>
+          <t>CD Platense Zacatecoluca ✓ - Inter FA: 1:0</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.62</v>
+        <v>0.91</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Kowloon City</t>
+          <t>CD Platense Zacatecoluca</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -6438,15 +6882,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Hapoel Raanana - Hapoel Hadera: 17:00</t>
+          <t>Treasure Beach FC  - Waterhouse FC: 0:0</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Hapoel Raanana</t>
+          <t>Treasure Beach FC</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6454,15 +6898,15 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -6473,15 +6917,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Alianza FC - Junior FC: 22:10</t>
+          <t>Hapoel Afula - Hapoel Acre : 2:2</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.96</v>
+        <v>1.06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Junior FC</t>
+          <t>Hapoel Acre</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6489,12 +6933,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I173" t="b">
         <v>0</v>
@@ -6508,15 +6952,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Kano Pillars - Shooting Stars Sports Club: 16:00</t>
+          <t>AO Kavala - PAOK Thessaloniki B : 1:1</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Kano Pillars</t>
+          <t>PAOK Thessaloniki B</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6524,15 +6968,15 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -6543,28 +6987,28 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Niroye Zamini FC - Shahrdari Nowshahr: 14:00</t>
+          <t>Vision FC  - Bibiani Gold Stars FC: 16:00</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Niroye Zamini FC</t>
+          <t>Vision FC</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
@@ -6578,31 +7022,35 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Unión San Felipe - Deportes Santa Cruz: 16:30</t>
+          <t>Lucky Mile ✓ - Kwun Tong: 2:1</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.15</v>
+        <v>3.93</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Lucky Mile</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H176" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6613,31 +7061,35 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>San Marino - Cyprus: 14:00</t>
+          <t>Vila Nova Futebol Clube (GO) ✓ - Amazonas FC: 1:0</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Vila Nova Futebol Clube (GO)</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H177" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6648,15 +7100,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Antonio FC - Guayaquil City FC: 23:00</t>
+          <t>Wikki Tourists  - Kwara United FC: 1:1</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>San Antonio FC</t>
+          <t>Wikki Tourists</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -6664,12 +7116,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
@@ -6683,31 +7135,35 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SU Dinamo Jug - FK Borac 1926 Cacak: 13:00</t>
+          <t>Kowloon City ✓ - Eastern District: 2:1</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.24</v>
+        <v>2.62</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SU Dinamo Jug</t>
+          <t>Kowloon City</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H179" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6718,15 +7174,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Las Vegas Lights FC - Oakland Roots SC: 2:2</t>
+          <t>Hapoel Raanana X - Hapoel Hadera: 0:3</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.79</v>
+        <v>1.3</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Las Vegas Lights FC</t>
+          <t>Hapoel Raanana</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -6734,12 +7190,16 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
@@ -6753,31 +7213,35 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FK Internacional - Kom Podgorica: 16:00</t>
+          <t>Alianza FC - Junior FC ✓: 0:1</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>FK Internacional</t>
+          <t>Junior FC</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H181" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6788,15 +7252,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CS Cerrito - Club Oriental: 19:00</t>
+          <t>Kano Pillars  - Shooting Stars Sports Club: 1:1</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>CS Cerrito</t>
+          <t>Kano Pillars</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -6809,10 +7273,10 @@
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -6823,19 +7287,19 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FC Schifflange 95 - FC Luxembourg City: 15:00</t>
+          <t>Niroye Zamini FC  - Shahrdari Nowshahr: 14:00</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.47</v>
+        <v>0.58</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>FC Schifflange 95</t>
+          <t>Niroye Zamini FC</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6844,7 +7308,7 @@
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
@@ -6858,19 +7322,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Hapoel Nof HaGalil - SC Kfar Qasem: 17:00</t>
+          <t>Unión San Felipe  - Deportes Santa Cruz: 0:0</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.91</v>
+        <v>1.15</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hapoel Nof HaGalil</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6879,10 +7343,10 @@
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6893,15 +7357,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sporting Gijón - Racing Santander: 15:15</t>
+          <t>San Marino - Cyprus ✓: 0:4</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -6909,12 +7373,16 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H185" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
@@ -6928,28 +7396,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Unión Española - Huachipato FC: 16:00</t>
+          <t>San Antonio FC X - Guayaquil City FC: 1:3</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2.12</v>
+        <v>0.78</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Unión Española</t>
+          <t>San Antonio FC</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H186" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I186" t="b">
         <v>0</v>
@@ -6963,15 +7435,15 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Hartford Athletic - Sacramento Republic FC: 3:2</t>
+          <t>SU Dinamo Jug ✓ - FK Borac 1926 Cacak: 1:0</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>SU Dinamo Jug</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -6979,15 +7451,19 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H187" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -6998,28 +7474,28 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Shenzhen Juniors - Shaanxi Union: 3:3</t>
+          <t>Las Vegas Lights FC  - Oakland Roots SC: 2:2</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2.74</v>
+        <v>1.79</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Shaanxi Union</t>
+          <t>Las Vegas Lights FC</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I188" t="b">
         <v>0</v>
@@ -7033,28 +7509,28 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ND Gorica - ND Slovan Ljubljana: 15:00</t>
+          <t>FK Internacional  - Kom Podgorica: 16:00</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>FK Internacional</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I189" t="b">
         <v>0</v>
@@ -7068,15 +7544,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Young Apostles FC - Basake Holy Stars FC: 16:00</t>
+          <t>CS Cerrito  - Club Oriental: 19:00</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.08</v>
+        <v>1.49</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Young Apostles FC</t>
+          <t>CS Cerrito</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -7084,12 +7560,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I190" t="b">
         <v>0</v>
@@ -7103,15 +7579,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CD Hércules - Zacatecoluca FC: 22:00</t>
+          <t>FC Schifflange 95 ✓ - FC Luxembourg City: 4:0</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CD Hércules</t>
+          <t>FC Schifflange 95</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -7119,12 +7595,16 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H191" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
@@ -7138,15 +7618,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Club Atlético Gimnasia y Esgrima (Jujuy) - CA San Miguel: 19:00</t>
+          <t>Hapoel Nof HaGalil  - SC Kfar Qasem: 1:1</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.41</v>
+        <v>0.91</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Club Atlético Gimnasia y Esgrima (Jujuy)</t>
+          <t>Hapoel Nof HaGalil</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -7154,12 +7634,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I192" t="b">
         <v>0</v>
@@ -7173,28 +7653,32 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Mineros de Zacatecas - CD Leones Negros de la UdeG: 2:0</t>
+          <t>Sporting Gijón - Racing Santander X: 2:1</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Mineros de Zacatecas</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
@@ -7208,15 +7692,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lexington SC - El Paso Locomotive FC: 1:2</t>
+          <t>Unión Española ✓ - Huachipato FC: 4:2</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2.31</v>
+        <v>2.12</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Lexington SC</t>
+          <t>Unión Española</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -7224,15 +7708,19 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -7243,28 +7731,32 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Deportes La Serena - Deportes Limache: 19:00</t>
+          <t>Hartford Athletic ✓ - Sacramento Republic FC: 3:2</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2.63</v>
+        <v>1.49</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Deportes La Serena</t>
+          <t>Hartford Athletic</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H195" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I195" t="b">
         <v>0</v>
@@ -7278,28 +7770,28 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kun Khalifat Football Club - Enyimba Aba: 16:00</t>
+          <t>Shenzhen Juniors - Shaanxi Union : 3:3</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.42</v>
+        <v>2.74</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Kun Khalifat Football Club</t>
+          <t>Shaanxi Union</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
@@ -7313,15 +7805,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FK FAP Priboj - FK Jedinstvo Ub: 13:00</t>
+          <t>ND Gorica  - ND Slovan Ljubljana: 1:1</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>FK Jedinstvo Ub</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7329,15 +7821,15 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -7348,15 +7840,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FC Tyumen - Alania Vladikavkaz: 12:00</t>
+          <t>Young Apostles FC ✓ - Basake Holy Stars FC: 2:0</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>FC Tyumen</t>
+          <t>Young Apostles FC</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -7364,15 +7856,19 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H198" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -7383,15 +7879,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CA Independiente - CD Universitario: 2:0</t>
+          <t>CD Hércules  - Zacatecoluca FC: 1:1</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CD Hércules</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7399,7 +7895,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -7418,31 +7914,31 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Deportivo Guastatoya - Comunicaciones FC: 23:00</t>
+          <t>Club Atlético Gimnasia y Esgrima (Jujuy)  - CA San Miguel: 0:0</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.74</v>
+        <v>0.41</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Deportivo Guastatoya</t>
+          <t>Club Atlético Gimnasia y Esgrima (Jujuy)</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -7453,15 +7949,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa - CF Atlante: 0:0</t>
+          <t>Mineros de Zacatecas ✓ - CD Leones Negros de la UdeG: 2:0</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>CF Atlante</t>
+          <t>Mineros de Zacatecas</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -7469,12 +7965,16 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
@@ -7488,31 +7988,35 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Young Apostles FC - Bechem United FC: 16:00</t>
+          <t>Lexington SC X - El Paso Locomotive FC: 1:2</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.31</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Young Apostles FC</t>
+          <t>Lexington SC</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr"/>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H202" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -7523,28 +8027,32 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Chad - Central African Republic: 17:00</t>
+          <t>Deportes La Serena X - Deportes Limache: 1:6</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Deportes La Serena</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr"/>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H203" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I203" t="b">
         <v>0</v>
@@ -7558,15 +8066,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Herrera FC - Veraguas United FC: 22:00</t>
+          <t>Kun Khalifat Football Club ✓ - Enyimba Aba: 1:0</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Veraguas United FC</t>
+          <t>Kun Khalifat Football Club</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -7574,15 +8082,19 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr"/>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H204" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -7593,15 +8105,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Neftchi Kochkor-Ata - Alga Bishkek: 14:00</t>
+          <t>FK FAP Priboj - FK Jedinstvo Ub X: 2:0</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Neftchi Kochkor-Ata</t>
+          <t>FK Jedinstvo Ub</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -7609,15 +8121,19 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr"/>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H205" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -7628,15 +8144,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CA Aldosivi - CA Huracán: 18:30</t>
+          <t>FC Tyumen  - Alania Vladikavkaz: 12:00</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.78</v>
+        <v>1.39</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>CA Huracán</t>
+          <t>FC Tyumen</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -7644,12 +8160,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I206" t="b">
         <v>0</v>
@@ -7663,31 +8179,35 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FK Podgorica - OSK Igalo: 14:30</t>
+          <t>CA Independiente ✓ - CD Universitario: 2:0</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2.02</v>
+        <v>1.15</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>OSK Igalo</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H207" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -7698,28 +8218,28 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ND Ilirija 1911 - NK Krka: 14:30</t>
+          <t>Deportivo Guastatoya  - Comunicaciones FC: 23:00</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.88</v>
+        <v>1.74</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ND Ilirija 1911</t>
+          <t>Deportivo Guastatoya</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I208" t="b">
         <v>0</v>
@@ -7733,15 +8253,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Panargiakos APO - PAE Chania: 12:00</t>
+          <t>Dorados de Sinaloa - CF Atlante : 0:0</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>CF Atlante</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7749,15 +8269,346 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I209" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Young Apostles FC  - Bechem United FC: 16:00</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Young Apostles FC</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>16</v>
+      </c>
+      <c r="I210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Chad X - Central African Republic: 2:3</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+      <c r="I211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Herrera FC - Veraguas United FC ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Veraguas United FC</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Neftchi Kochkor-Ata  - Alga Bishkek: 14:00</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Neftchi Kochkor-Ata</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>14</v>
+      </c>
+      <c r="I213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>CA Aldosivi - CA Huracán X: 2:0</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>CA Huracán</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>FK Podgorica - OSK Igalo X: 1:0</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>OSK Igalo</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ND Ilirija 1911  - NK Krka: 1:1</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>ND Ilirija 1911</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Qingdao Red Lions  - Guangxi Pingguo: 1:1</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Qingdao Red Lions</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+      <c r="I217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sun Oct 12</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Panargiakos APO - PAE Chania : 0:0</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
